--- a/docentes/Castro Vasquez Julieta Estadisticos 2020.xlsx
+++ b/docentes/Castro Vasquez Julieta Estadisticos 2020.xlsx
@@ -895,7 +895,7 @@
         <v>11</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -918,7 +918,7 @@
         <v>11</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -941,7 +941,7 @@
         <v>11</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -964,7 +964,7 @@
         <v>11</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -987,7 +987,7 @@
         <v>11</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1010,7 +1010,7 @@
         <v>11</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1033,7 +1033,7 @@
         <v>11</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
